--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -472,22 +472,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MA162</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -568,22 +568,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C202</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -600,17 +600,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS151 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS151 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -838,17 +838,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -870,17 +870,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS151 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS151 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -907,22 +907,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>C202</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>CS151 (Elective)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>CS151 (Elective)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>C202</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -838,22 +838,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -907,22 +907,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,26 +1023,31 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Introduction to Physics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1061,29 +1066,34 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to Programming</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1102,29 +1112,34 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1143,142 +1158,162 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Computational Thinking</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Introduction to Physics</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1307,19 +1342,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ravishankar, Vivekraj</t>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1334,33 +1374,38 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fundamentals of Computing</t>
+          <t>Introduction to C Programming</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1389,19 +1434,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Computational Thinking</t>
+          <t>Introduction to Physics</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1416,33 +1466,38 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Chandrika Kamat</t>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kannada Kali-Nali</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1471,19 +1526,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Leveraging IT for Better Life</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1512,19 +1572,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Basics of Design</t>
+          <t>Computational Thinking</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1539,33 +1604,38 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sandesh Phalke</t>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1580,33 +1650,38 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to C Programming</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1635,29 +1710,34 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1676,70 +1756,80 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Programming</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to C Programming</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1758,19 +1848,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1780,16 +1875,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1799,7 +1894,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1911,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to Programming</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1821,38 +1921,43 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Animesh Roy</t>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Economics/IET</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1862,57 +1967,62 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Introduction to Physics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1922,101 +2032,116 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ravishankar</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Manjunath</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fundamentals of Computing</t>
+          <t>Economics/IET</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Mallikarjun K</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Computational Thinking</t>
+          <t>Introduction to Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2031,33 +2156,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Chandrika Ka...</t>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kannada Kali-Nali</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2086,19 +2216,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Leveraging IT for Better Life</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2127,19 +2262,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Basics of Design</t>
+          <t>Computational Thinking</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,33 +2294,38 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sandesh Phalk...</t>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2195,33 +2340,38 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to C Programming</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2250,29 +2400,34 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2291,70 +2446,80 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to Programming</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to C Programming</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2373,499 +2538,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Manjunath</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Introduction to Physics</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Ravishankar</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Vivekraj</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Computational Thinking</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Chandrika Kamat</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Anand B</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Sandesh Phalke</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Introduction to C Programming</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
           <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
@@ -3234,7 +2912,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3271,12 +2949,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3308,12 +2986,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -504,22 +504,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C202</t>
         </is>
       </c>
     </row>
@@ -838,22 +838,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>MA161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -907,22 +907,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>C202</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,17 +477,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>C202</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,22 +504,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -629,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MA161</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>C202</t>
         </is>
       </c>
     </row>
@@ -739,7 +742,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -749,12 +752,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -771,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -781,12 +784,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -840,17 +843,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -899,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -952,6 +955,3371 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Manjunath</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Manjunath</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -474,17 +474,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C202</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,17 +501,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -565,14 +565,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>MA161</t>
@@ -580,12 +580,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -739,22 +739,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>C202</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MA161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -771,22 +771,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,27 +835,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>MA161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -904,22 +904,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>C202</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -59,7 +59,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill/>
     </fill>
@@ -122,14 +122,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00b584e0"/>
-        <bgColor rgb="00b584e0"/>
+        <fgColor rgb="00FF6B6B"/>
+        <bgColor rgb="00FF6B6B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b584e0"/>
+        <bgColor rgb="00b584e0"/>
       </patternFill>
     </fill>
     <fill>
@@ -231,18 +237,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -330,6 +336,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,7 +1230,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1255,6 +1265,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1287,6 +1298,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1296,16 +1308,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-CS151 [C205]
-HS157 [C302]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-HS156 [C102]
-HS152 [C104]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
@@ -1315,16 +1318,7 @@
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-CS151 [C205]
-HS157 [C302]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-HS156 [C102]
-HS152 [C104]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
@@ -1337,6 +1331,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1369,6 +1364,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1401,6 +1397,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1420,7 +1417,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -1433,6 +1430,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1452,7 +1450,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -1462,18 +1460,10 @@
       </c>
       <c r="F7" s="9" t="inlineStr">
         <is>
-          <t>PH151 (Tutorial) [C202]
-DS151 (Tutorial) [C203]
-CS101 (Tutorial) [C204]
-CS151 (Tutorial) [C205]
-HS157 (Tutorial) [C302]
-HS102 (Tutorial) [C303]
-HS103 (Tutorial) [C304]
-DE101 (Tutorial) [C305]
-HS156 (Tutorial) [C102]
-HS152 (Tutorial) [C104]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1506,6 +1496,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1538,6 +1529,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1570,6 +1562,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1578,6 +1571,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1586,6 +1580,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -1598,6 +1593,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -1610,6 +1606,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -1632,8 +1629,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -1656,8 +1666,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -1680,8 +1703,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -1704,8 +1740,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -1728,8 +1777,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="inlineStr">
@@ -1752,8 +1814,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
@@ -1762,6 +1837,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -1774,6 +1850,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -1806,6 +1883,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -1818,14 +1896,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1838,6 +1916,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1850,14 +1929,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1870,6 +1949,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1882,14 +1962,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1902,6 +1982,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -1914,14 +1995,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C27" s="27" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -1934,6 +2015,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -1946,14 +2028,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C28" s="28" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -1966,6 +2048,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1978,14 +2061,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C29" s="29" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -1998,6 +2081,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2010,14 +2094,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C30" s="30" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2030,6 +2114,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2042,14 +2127,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C31" s="31" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2062,6 +2147,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2074,14 +2160,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C32" s="32" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2094,6 +2180,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -2106,14 +2193,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C33" s="33" t="inlineStr">
+      <c r="C33" s="34" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2126,10 +2213,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -2143,7 +2231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2156,7 +2244,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2190,6 +2279,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2222,6 +2312,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2229,16 +2320,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="28" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2246,16 +2330,9 @@
           <t>CS161 [C202]</t>
         </is>
       </c>
-      <c r="D3" s="28" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2268,6 +2345,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2280,7 +2358,7 @@
           <t>CS161 [C202]</t>
         </is>
       </c>
-      <c r="C4" s="33" t="inlineStr">
+      <c r="C4" s="34" t="inlineStr">
         <is>
           <t>HS152 [C101]</t>
         </is>
@@ -2300,6 +2378,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2332,6 +2411,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2364,6 +2444,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2391,18 +2472,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="28" t="inlineStr">
-        <is>
-          <t>HS157 (Tutorial) [C302]
-HS156 (Tutorial) [C102]
-PH151 (Tutorial) [C202]
-DS151 (Tutorial) [C203]
-CS101 (Tutorial) [C204]
-HS102 (Tutorial) [C303]
-HS103 (Tutorial) [C304]
-DE101 (Tutorial) [C305]</t>
-        </is>
-      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2410,7 +2485,7 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="33" t="inlineStr">
+      <c r="B8" s="34" t="inlineStr">
         <is>
           <t>HS152 [C101]</t>
         </is>
@@ -2422,7 +2497,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2435,6 +2510,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2454,7 +2530,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2467,6 +2543,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2499,6 +2576,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2507,6 +2585,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2515,6 +2594,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -2527,6 +2607,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -2539,6 +2620,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -2561,8 +2643,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -2585,8 +2680,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -2609,8 +2717,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -2633,8 +2754,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -2657,8 +2791,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="inlineStr">
@@ -2681,8 +2828,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
@@ -2691,6 +2851,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -2703,6 +2864,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -2735,6 +2897,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -2747,14 +2910,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2767,6 +2930,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2779,14 +2943,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2799,6 +2963,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2811,14 +2976,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2831,6 +2996,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2843,14 +3009,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C27" s="27" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2863,6 +3029,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2875,14 +3042,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C28" s="28" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2895,6 +3062,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2907,14 +3075,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C29" s="29" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2927,6 +3095,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2939,14 +3108,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C30" s="30" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2959,6 +3128,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2971,14 +3141,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C31" s="31" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2991,6 +3161,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3003,14 +3174,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C32" s="32" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3023,6 +3194,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -3035,14 +3207,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C33" s="33" t="inlineStr">
+      <c r="C33" s="34" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3055,10 +3227,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -3072,7 +3245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3085,7 +3258,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3119,6 +3293,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3151,6 +3326,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3158,11 +3334,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="28" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-CS151 [C205]</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -3170,11 +3344,9 @@
           <t>CS161 [C101]</t>
         </is>
       </c>
-      <c r="D3" s="28" t="inlineStr">
-        <is>
-          <t>HS157 [C302]
-HS156 [C102]
-CS151 [C205]</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3187,6 +3359,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3199,7 +3372,7 @@
           <t>CS161 [C101]</t>
         </is>
       </c>
-      <c r="C4" s="33" t="inlineStr">
+      <c r="C4" s="34" t="inlineStr">
         <is>
           <t>HS152 [C102]</t>
         </is>
@@ -3219,6 +3392,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3251,6 +3425,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3283,6 +3458,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3310,13 +3486,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="28" t="inlineStr">
-        <is>
-          <t>HS157 (Tutorial) [C302]
-HS156 (Tutorial) [C102]
-CS151 (Tutorial) [C205]</t>
-        </is>
-      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3324,7 +3499,7 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="33" t="inlineStr">
+      <c r="B8" s="34" t="inlineStr">
         <is>
           <t>HS152 [C102]</t>
         </is>
@@ -3349,6 +3524,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3381,6 +3557,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3413,6 +3590,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3421,6 +3599,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3429,6 +3608,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -3441,6 +3621,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -3453,6 +3634,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -3475,8 +3657,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -3499,8 +3694,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -3523,8 +3731,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -3547,8 +3768,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -3571,8 +3805,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="inlineStr">
@@ -3595,8 +3842,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
@@ -3605,6 +3865,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -3617,6 +3878,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -3649,6 +3911,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -3661,14 +3924,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3681,6 +3944,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3693,14 +3957,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3713,6 +3977,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3725,14 +3990,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3745,6 +4010,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3757,14 +4023,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C27" s="27" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3777,6 +4043,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3789,14 +4056,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C28" s="28" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3809,6 +4076,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3821,14 +4089,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C29" s="29" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3841,6 +4109,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3853,14 +4122,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C30" s="30" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3873,6 +4142,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3885,14 +4155,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C31" s="31" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3905,6 +4175,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3917,14 +4188,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C32" s="32" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3937,6 +4208,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -3949,14 +4221,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C33" s="33" t="inlineStr">
+      <c r="C33" s="34" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3969,10 +4241,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2068,12 +2068,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2355,17 +2355,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C101]</t>
+          <t>HS152 [C203]</t>
         </is>
       </c>
       <c r="D4" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2421,17 +2421,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2487,17 +2487,17 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C101]</t>
+          <t>HS152 [C203]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2950,12 +2950,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3082,12 +3082,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C102]</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C102]</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="C8" s="12" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3964,12 +3964,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3997,12 +3997,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4129,12 +4129,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4162,12 +4162,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -205,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -233,11 +237,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -341,6 +389,8 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1313,7 +1363,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1323,7 +1373,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1341,17 +1391,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C101]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1407,12 +1457,12 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
@@ -1422,7 +1472,7 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1455,7 +1505,7 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -1473,17 +1523,17 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C101]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1588,10 +1638,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1601,12 +1651,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -1845,11 +1895,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -2327,7 +2377,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2355,17 +2405,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C203]</t>
+          <t>HS152 [C102]</t>
         </is>
       </c>
       <c r="D4" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2426,12 +2476,12 @@
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -2487,17 +2537,17 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C203]</t>
+          <t>HS152 [C102]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C101]</t>
         </is>
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2530,7 +2580,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2602,10 +2652,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2615,12 +2665,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -2859,11 +2909,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -3341,7 +3391,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3369,17 +3419,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>HS152 [C101]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3440,12 +3490,12 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -3501,12 +3551,12 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>HS152 [C104]</t>
         </is>
       </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3616,10 +3666,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3629,12 +3679,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -3873,11 +3923,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -4251,4 +4301,8755 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS161 [L404]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS161 [L405]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HS152 [C303]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MA161 [L403]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA161 [L403]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS152 [L404]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS161 [C204]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name [C004]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C004]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type [C004]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs [C004]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Problem Solving [C001]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4 [C001]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C001]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/3 [C001]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance [C001]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C001]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only [C001]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2/2 [C001]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Digital Design [C001]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2 [C001]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Post-Mid Only [C001]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3/3 [C001]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Statistics [C001]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C001]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only [C001]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2/2 [C001]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Probability [C001]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C001]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Post-Mid Only [C001]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2/2 [C001]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Course [C004]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Course Code [C004]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom [C004]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom [C004]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, C101, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C102, C204</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C104, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C202, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C203, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C204, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C205, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C001, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C003, C303, C304, L404</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -756,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -808,6 +809,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -835,6 +841,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS161 (3-0-2-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -862,6 +873,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>DS161 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -889,6 +905,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>EC161 (3-0-2-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -916,6 +937,11 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>MA161 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -943,6 +969,11 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>MA162 (2-0-0-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -977,6 +1008,11 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -1004,6 +1040,11 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
           <t>CS101 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1031,6 +1072,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>CS151 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1058,6 +1104,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>DE101 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1085,6 +1136,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>DS151 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1112,6 +1168,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>HS102 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1139,6 +1200,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>HS103 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1166,6 +1232,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>HS152 (3-0-0-0-3)</t>
         </is>
       </c>
@@ -1193,6 +1264,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>HS156 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1220,6 +1296,11 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>HS157 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1247,15 +1328,20 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
           <t>PH151 (2-0-0-0-2)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1363,7 +1449,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1373,7 +1459,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1391,17 +1477,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C101]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1457,12 +1543,12 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
@@ -1472,7 +1558,7 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1505,7 +1591,7 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -1523,17 +1609,17 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C101]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2377,7 +2463,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2405,17 +2491,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C102]</t>
+          <t>HS152 [C203]</t>
         </is>
       </c>
       <c r="D4" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2476,12 +2562,12 @@
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -2537,17 +2623,17 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C102]</t>
+          <t>HS152 [C203]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C101]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2580,7 +2666,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -3391,7 +3477,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3419,17 +3505,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C101]</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3490,12 +3576,12 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -3551,12 +3637,12 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C104]</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -4394,7 +4480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [L404]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4421,17 +4507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [L405]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C303]</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [L403]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4485,12 +4571,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [L403]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4517,7 +4603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4549,12 +4635,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [L404]</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C204]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4693,27 +4779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name [C001]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [C001]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type [C001]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs [C001]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs [C001]</t>
         </is>
       </c>
     </row>
@@ -4909,27 +4995,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course [C001]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code [C001]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom [C001]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom [C001]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [C001]</t>
         </is>
       </c>
     </row>
@@ -5331,10 +5417,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37.5</v>
+        <v>52.5</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5361,10 +5447,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5429,10 +5515,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>91.5</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>18.3</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5667,10 +5753,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5803,10 +5889,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5905,10 +5991,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6041,10 +6127,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6075,10 +6161,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6327,10 +6413,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6361,10 +6447,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6395,10 +6481,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6525,7 +6611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,12 +6737,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -6670,7 +6756,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6742,7 +6828,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6790,21 +6876,21 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6814,7 +6900,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6828,7 +6914,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6867,7 +6953,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6886,7 +6972,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6934,21 +7020,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -6958,7 +7040,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -6972,7 +7054,7 @@
         </is>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7346,21 +7428,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -7370,7 +7448,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7384,7 +7462,7 @@
         </is>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7423,12 +7501,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7442,7 +7520,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7514,7 +7592,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7562,17 +7640,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7586,7 +7664,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -7634,17 +7712,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7658,7 +7736,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -7706,21 +7784,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7730,7 +7804,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7744,7 +7818,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -8118,21 +8192,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -8142,7 +8212,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8156,7 +8226,7 @@
         </is>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -8190,17 +8260,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8214,7 +8284,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8334,21 +8404,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -8358,7 +8424,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -8372,7 +8438,7 @@
         </is>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8746,21 +8812,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8770,7 +8832,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -8784,7 +8846,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8818,21 +8880,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -8842,7 +8900,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8856,7 +8914,7 @@
         </is>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -9230,21 +9288,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -9254,7 +9308,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9268,7 +9322,7 @@
         </is>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -9302,21 +9356,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -9326,7 +9376,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -9340,7 +9390,7 @@
         </is>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9714,21 +9764,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -9738,7 +9784,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9752,7 +9798,7 @@
         </is>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9796,7 +9842,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9814,7 +9860,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9872,7 +9918,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -9890,7 +9936,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -9948,7 +9994,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -9966,7 +10012,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -10042,7 +10088,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -10118,7 +10164,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -10194,7 +10240,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -10270,7 +10316,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10318,15 +10364,19 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
@@ -10342,7 +10392,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -10390,17 +10440,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10418,7 +10468,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -10466,17 +10516,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10494,7 +10544,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -10532,31 +10582,31 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -10566,17 +10616,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -10595,7 +10645,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10605,7 +10655,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10639,7 +10689,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -10663,12 +10713,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -10678,31 +10728,35 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -10710,9 +10764,13 @@
           <t>PH151</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10741,7 +10799,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10774,12 +10832,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10817,7 +10875,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10850,12 +10908,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10893,7 +10951,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10926,12 +10984,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -10969,7 +11027,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10984,7 +11042,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11002,12 +11060,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -11045,7 +11103,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11078,12 +11136,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11121,7 +11179,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11154,12 +11212,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11197,7 +11255,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11212,7 +11270,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11230,12 +11288,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11273,7 +11331,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11288,7 +11346,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11306,12 +11364,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11349,7 +11407,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11382,12 +11440,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11420,59 +11478,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -11496,7 +11546,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -11520,7 +11570,7 @@
         </is>
       </c>
       <c r="J70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -11540,7 +11590,7 @@
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11564,12 +11614,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11588,7 +11638,7 @@
         </is>
       </c>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -11603,12 +11653,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -11627,36 +11677,36 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -11666,17 +11716,17 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -11700,27 +11750,27 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11734,12 +11784,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -11768,7 +11818,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -11836,31 +11886,31 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -11870,17 +11920,17 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -11899,56 +11949,64 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -11977,7 +12035,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -11992,7 +12050,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12010,12 +12068,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12053,7 +12111,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12068,7 +12126,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -12086,12 +12144,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12129,7 +12187,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12144,7 +12202,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12162,12 +12220,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12205,7 +12263,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12220,7 +12278,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12238,12 +12296,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -12281,7 +12339,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12314,12 +12372,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -12357,7 +12415,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12390,12 +12448,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -12433,7 +12491,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12448,7 +12506,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12466,12 +12524,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -12509,20 +12567,24 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
@@ -12538,12 +12600,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -12581,22 +12643,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12614,12 +12676,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -12652,59 +12714,51 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -12723,17 +12777,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12752,7 +12806,7 @@
         </is>
       </c>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -12767,79 +12821,11 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12892,7 +12878,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C203</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -12909,7 +12895,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12926,7 +12912,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, C205</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12943,7 +12929,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -12960,7 +12946,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203, C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -12977,7 +12963,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C304</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -12994,7 +12980,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -13011,7 +12997,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C302</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13014,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C303</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13031,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C303, C304, L404</t>
+          <t>C204, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -314,22 +314,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -467,3928 +467,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>SEMESTER 1 - ECE BRANCH: COURSE INFORMATION</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>CORE COURSES</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>Display Format</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Sunil P V, Sunil C K, Animesh Roy</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (3-0-2-0-4 | Full Sem)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to data science and artifical inteligance</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (2-0-0-0-2 | Pre-Mid Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (3-0-2-0-2 | Post-Mid Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (2-0-0-0-2 | Pre-Mid Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (2-0-0-0-2 | Post-Mid Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>ELECTIVE COURSES</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>Display Format</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>CS101 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>CS151 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>Sandesh Phalke</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>DE101 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>Vivekraj</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>DS151 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Anand B</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>HS102 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>HS103 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>Anushree Kini</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (3-0-0-0-3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>HS156 (1-0-0-0-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>Computational musicology for hindustani music</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>Chandrika Kamat</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>HS157 (1-0-0-0-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>Ravishankar, Vivekraj</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>PH151 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C001]</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C205]</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C001]</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C001]</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C001]</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C001]</t>
-        </is>
-      </c>
-      <c r="C6" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B8" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C001]</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C205]</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G8" s="8" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>COURSE INFORMATION</t>
-        </is>
-      </c>
-      <c r="B13" s="35" t="n"/>
-      <c r="C13" s="35" t="n"/>
-      <c r="D13" s="35" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>CORE COURSES</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n"/>
-      <c r="C14" s="35" t="n"/>
-      <c r="D14" s="35" t="n"/>
-      <c r="E14" s="35" t="n"/>
-      <c r="F14" s="35" t="n"/>
-      <c r="G14" s="36" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C15" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="E15" s="19" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G15" s="19" t="inlineStr">
-        <is>
-          <t>Labs Hrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Introduction to data science and artifical inteligance</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E19" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F19" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G19" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G20" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>ELECTIVE BASKETS</t>
-        </is>
-      </c>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="35" t="n"/>
-      <c r="D22" s="35" t="n"/>
-      <c r="E22" s="35" t="n"/>
-      <c r="F22" s="36" t="n"/>
-      <c r="G22" s="8" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B23" s="19" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C23" s="19" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="D23" s="19" t="inlineStr">
-        <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="E23" s="19" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G23" s="8" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="C24" s="25" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C101]</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G24" s="8" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C25" s="26" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C102]</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G25" s="8" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C26" s="27" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C104]</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G26" s="8" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C202]</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G27" s="8" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>Computational musicology for hindustani music</t>
-        </is>
-      </c>
-      <c r="C28" s="29" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C203]</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G28" s="8" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C29" s="30" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C204]</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G29" s="8" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C30" s="31" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C205]</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G30" s="8" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C302]</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G31" s="8" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C32" s="33" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C303]</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G32" s="8" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C33" s="34" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C304]</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="G33" s="8" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C205]</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C203]</t>
-        </is>
-      </c>
-      <c r="C4" s="34" t="inlineStr">
-        <is>
-          <t>HS152 [C203]</t>
-        </is>
-      </c>
-      <c r="D4" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C6" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C001]</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B8" s="34" t="inlineStr">
-        <is>
-          <t>HS152 [C203]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C001]</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G8" s="8" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>COURSE INFORMATION</t>
-        </is>
-      </c>
-      <c r="B13" s="35" t="n"/>
-      <c r="C13" s="35" t="n"/>
-      <c r="D13" s="35" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>CORE COURSES</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n"/>
-      <c r="C14" s="35" t="n"/>
-      <c r="D14" s="35" t="n"/>
-      <c r="E14" s="35" t="n"/>
-      <c r="F14" s="35" t="n"/>
-      <c r="G14" s="36" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C15" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="E15" s="19" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G15" s="19" t="inlineStr">
-        <is>
-          <t>Labs Hrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Introduction to data science and artifical inteligance</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E19" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F19" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G19" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G20" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>ELECTIVE BASKETS</t>
-        </is>
-      </c>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="35" t="n"/>
-      <c r="D22" s="35" t="n"/>
-      <c r="E22" s="35" t="n"/>
-      <c r="F22" s="36" t="n"/>
-      <c r="G22" s="8" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B23" s="19" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C23" s="19" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="D23" s="19" t="inlineStr">
-        <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="E23" s="19" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G23" s="8" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="C24" s="25" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C101]</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G24" s="8" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C25" s="26" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C102]</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G25" s="8" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C26" s="27" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C104]</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G26" s="8" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C202]</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G27" s="8" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>Computational musicology for hindustani music</t>
-        </is>
-      </c>
-      <c r="C28" s="29" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C203]</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G28" s="8" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C29" s="30" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C204]</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G29" s="8" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C30" s="31" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C205]</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G30" s="8" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C302]</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G31" s="8" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C32" s="33" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C303]</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G32" s="8" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C33" s="34" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C304]</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="G33" s="8" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C302]</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C302]</t>
-        </is>
-      </c>
-      <c r="C4" s="34" t="inlineStr">
-        <is>
-          <t>HS152 [C204]</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C001]</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C001]</t>
-        </is>
-      </c>
-      <c r="D6" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C001]</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B8" s="34" t="inlineStr">
-        <is>
-          <t>HS152 [C204]</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C001]</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G8" s="8" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>COURSE INFORMATION</t>
-        </is>
-      </c>
-      <c r="B13" s="35" t="n"/>
-      <c r="C13" s="35" t="n"/>
-      <c r="D13" s="35" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>CORE COURSES</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n"/>
-      <c r="C14" s="35" t="n"/>
-      <c r="D14" s="35" t="n"/>
-      <c r="E14" s="35" t="n"/>
-      <c r="F14" s="35" t="n"/>
-      <c r="G14" s="36" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C15" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="E15" s="19" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G15" s="19" t="inlineStr">
-        <is>
-          <t>Labs Hrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Introduction to data science and artifical inteligance</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E19" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F19" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G19" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G20" s="8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>ELECTIVE BASKETS</t>
-        </is>
-      </c>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="35" t="n"/>
-      <c r="D22" s="35" t="n"/>
-      <c r="E22" s="35" t="n"/>
-      <c r="F22" s="36" t="n"/>
-      <c r="G22" s="8" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B23" s="19" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C23" s="19" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="D23" s="19" t="inlineStr">
-        <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="E23" s="19" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G23" s="8" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="C24" s="25" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C101]</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G24" s="8" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C25" s="26" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C102]</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G25" s="8" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C26" s="27" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C104]</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G26" s="8" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C202]</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G27" s="8" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>Computational musicology for hindustani music</t>
-        </is>
-      </c>
-      <c r="C28" s="29" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C203]</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G28" s="8" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C29" s="30" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C204]</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G29" s="8" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C30" s="31" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C205]</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G30" s="8" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C302]</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G31" s="8" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C32" s="33" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C303]</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G32" s="8" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C33" s="34" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C304]</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="G33" s="8" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4480,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4490,7 +568,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [L406]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4507,22 +585,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>CS161 [L407]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [L408]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4571,17 +649,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>EC161 [L408]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4603,7 +681,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4635,27 +713,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>MA162 [L406]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -4672,22 +750,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>CS161 (Lab) [C002]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -4779,27 +857,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C001]</t>
+          <t>Course Name [C302]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C001]</t>
+          <t>L-T-P-S-C [C302]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C001]</t>
+          <t>Term Type [C302]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C001]</t>
+          <t>Lectures Hrs [C302]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C001]</t>
+          <t>Tutorials Hrs [C302]</t>
         </is>
       </c>
     </row>
@@ -4811,27 +889,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C001]</t>
+          <t>Problem Solving [C302]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C001]</t>
+          <t>3-0-2-0-4 [C302]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C001]</t>
+          <t>Full Sem [C302]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C001]</t>
+          <t>3/3 [C302]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
     </row>
@@ -4843,27 +921,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C001]</t>
+          <t>Introduction to data science and artifical inteligance [C302]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C001]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C001]</t>
+          <t>Pre-Mid Only [C302]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C001]</t>
+          <t>2/2 [C302]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
     </row>
@@ -4875,27 +953,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C001]</t>
+          <t>Digital Design [C302]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C001]</t>
+          <t>3-0-2-0-2 [C302]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C001]</t>
+          <t>Post-Mid Only [C302]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C001]</t>
+          <t>3/3 [C302]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
     </row>
@@ -4907,27 +985,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Statistics [C001]</t>
+          <t>Statistics [C302]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C001]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C001]</t>
+          <t>Pre-Mid Only [C302]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C001]</t>
+          <t>2/2 [C302]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -4939,27 +1017,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Probability [C001]</t>
+          <t>Probability [C302]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C001]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C001]</t>
+          <t>Post-Mid Only [C302]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C001]</t>
+          <t>2/2 [C302]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -4995,27 +1073,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course [C001]</t>
+          <t>Course [C302]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code [C001]</t>
+          <t>Course Code [C302]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C001]</t>
+          <t>Lecture Slot - Classroom [C302]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C001]</t>
+          <t>Tutorial Slot - Classroom [C302]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C001]</t>
+          <t>L-T-P-S-C [C205]</t>
         </is>
       </c>
     </row>
@@ -5027,27 +1105,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5059,27 +1137,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5091,27 +1169,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5123,27 +1201,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5155,27 +1233,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5187,27 +1265,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5219,27 +1297,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5251,27 +1329,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5283,27 +1361,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5315,27 +1393,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5417,10 +1495,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5447,10 +1525,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5515,10 +1593,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5549,10 +1627,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5719,10 +1797,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5889,10 +1967,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5923,10 +2001,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5957,10 +2035,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5991,10 +2069,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6127,10 +2205,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>9.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6515,10 +2593,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6549,10 +2627,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6583,10 +2661,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6611,7 +2689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6727,17 +2805,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6756,12 +2834,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -6799,22 +2877,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6828,17 +2906,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P3" t="b">
@@ -6866,27 +2944,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6900,17 +2978,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -6938,12 +3016,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6958,7 +3036,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6972,12 +3050,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -7010,25 +3088,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
@@ -7040,12 +3122,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7078,25 +3160,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -7108,12 +3194,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7146,25 +3232,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -7176,12 +3266,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7214,25 +3304,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -7244,12 +3338,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7282,25 +3376,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
@@ -7312,12 +3410,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7350,25 +3448,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -7380,12 +3482,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7413,17 +3515,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7436,7 +3538,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
@@ -7448,12 +3554,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7486,22 +3592,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7520,12 +3626,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7558,12 +3664,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7578,7 +3684,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7592,12 +3698,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7630,27 +3736,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7664,17 +3770,17 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -7702,12 +3808,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7741,12 +3847,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P16" t="b">
@@ -7784,15 +3890,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -7804,7 +3914,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7852,15 +3962,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -7872,7 +3986,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7920,15 +4034,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
@@ -7940,7 +4058,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -7988,15 +4106,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -8008,7 +4130,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -8056,15 +4178,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -8076,7 +4202,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8124,15 +4250,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -8144,7 +4274,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -8192,15 +4322,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -8212,7 +4346,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8255,22 +4389,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8284,12 +4418,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8322,27 +4456,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8356,12 +4490,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8404,15 +4538,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -8424,7 +4562,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -8472,15 +4610,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -8492,7 +4634,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8540,15 +4682,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
@@ -8560,7 +4706,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -8608,15 +4754,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
@@ -8628,7 +4778,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8676,15 +4826,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -8696,7 +4850,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -8744,15 +4898,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -8764,7 +4922,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8812,15 +4970,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
@@ -8832,7 +4994,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -8870,25 +5032,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -8900,12 +5066,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8938,25 +5104,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -8968,12 +5138,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9006,25 +5176,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -9036,12 +5210,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9074,7 +5248,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -9084,15 +5258,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -9104,7 +5282,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -9142,7 +5320,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -9152,15 +5330,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -9172,7 +5354,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9210,25 +5392,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
@@ -9240,12 +5426,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9278,25 +5464,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
@@ -9308,12 +5498,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9341,30 +5531,34 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
@@ -9376,12 +5570,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9409,30 +5603,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
@@ -9444,12 +5642,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9482,25 +5680,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
@@ -9512,17 +5714,17 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P42" t="b">
@@ -9550,25 +5752,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -9580,17 +5786,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P43" t="b">
@@ -9618,25 +5824,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -9648,12 +5858,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9686,7 +5896,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -9696,15 +5906,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -9716,7 +5930,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -9754,25 +5968,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
@@ -9784,12 +6002,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9817,17 +6035,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9850,22 +6068,18 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9893,17 +6107,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9918,7 +6132,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -9926,22 +6140,18 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9969,17 +6179,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9994,7 +6204,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10002,22 +6212,18 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10045,17 +6251,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10070,7 +6276,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10078,22 +6284,18 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10131,7 +6333,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10146,7 +6348,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10164,12 +6366,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10207,7 +6409,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10222,7 +6424,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10240,12 +6442,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10283,7 +6485,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10298,7 +6500,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10316,12 +6518,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10359,7 +6561,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10392,12 +6594,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10435,7 +6637,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10468,12 +6670,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10511,7 +6713,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10544,12 +6746,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10582,51 +6784,59 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10645,56 +6855,64 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10713,7 +6931,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10723,7 +6941,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10738,7 +6956,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10756,12 +6974,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10789,7 +7007,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10799,7 +7017,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10814,7 +7032,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10832,12 +7050,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10875,7 +7093,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10908,12 +7126,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10951,7 +7169,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10984,12 +7202,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11027,7 +7245,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11042,7 +7260,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11060,12 +7278,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -11103,7 +7321,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11118,7 +7336,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11136,12 +7354,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11179,7 +7397,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11212,12 +7430,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11255,7 +7473,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11270,7 +7488,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11288,12 +7506,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11331,7 +7549,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11364,12 +7582,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11407,7 +7625,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11422,7 +7640,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11440,12 +7658,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11478,51 +7696,59 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11546,27 +7772,27 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11577,18 +7803,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -11609,56 +7843,64 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11677,17 +7919,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11702,7 +7944,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11713,18 +7955,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11745,32 +7995,32 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11781,18 +8031,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11813,7 +8071,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11823,22 +8081,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -11849,18 +8107,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -11881,56 +8147,64 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -11959,7 +8233,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -11974,7 +8248,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -11992,12 +8266,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12035,7 +8309,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12050,7 +8324,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12068,12 +8342,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12111,7 +8385,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12144,12 +8418,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12187,7 +8461,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12202,7 +8476,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12220,12 +8494,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12263,7 +8537,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12296,12 +8570,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -12310,522 +8584,6 @@
         </is>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J86" t="b">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12878,7 +8636,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -13031,7 +8789,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204, C304</t>
+          <t>C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -320,16 +320,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -467,6 +467,3928 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>SEMESTER 1 - ECE BRANCH: COURSE INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>Display Format</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (3-0-2-0-4 | Full Sem)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (2-0-0-0-2 | Pre-Mid Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (3-0-2-0-2 | Post-Mid Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (2-0-0-0-2 | Pre-Mid Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Chimayananda A</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (2-0-0-0-2 | Post-Mid Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>ELECTIVE COURSES</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Display Format</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>CS101 (2-0-0-0-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>CS151 (2-0-0-0-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>DE101 (2-0-0-0-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>DS151 (2-0-0-0-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>HS102 (2-0-0-0-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>HS103 (2-0-0-0-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>HS152 (3-0-0-0-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>HS156 (1-0-0-0-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>HS157 (1-0-0-0-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>PH151 (2-0-0-0-2)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="48" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C102]</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C102]</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C101]</t>
+        </is>
+      </c>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C202]</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C203]</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C101]</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C003]</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="D15" s="19" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="24" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
+      <c r="G22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="18" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B23" s="19" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C23" s="19" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="E23" s="19" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="F23" s="19" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C24" s="25" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C101]</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C25" s="26" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C102]</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C26" s="27" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C104]</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C27" s="28" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C202]</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C28" s="29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C203]</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="G28" s="8" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C29" s="30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C204]</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G29" s="8" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C30" s="31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C205]</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G30" s="8" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C31" s="32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C302]</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C32" s="33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C303]</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C33" s="34" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C304]</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="48" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C302]</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C102]</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C205]</t>
+        </is>
+      </c>
+      <c r="C4" s="34" t="inlineStr">
+        <is>
+          <t>HS152 [C204]</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" s="34" t="inlineStr">
+        <is>
+          <t>HS152 [C204]</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="D15" s="19" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="24" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
+      <c r="G22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="18" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B23" s="19" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C23" s="19" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="E23" s="19" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="F23" s="19" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C24" s="25" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C101]</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C25" s="26" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C102]</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C26" s="27" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C104]</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C27" s="28" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C202]</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C28" s="29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C203]</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="G28" s="8" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C29" s="30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C204]</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G29" s="8" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C30" s="31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C205]</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G30" s="8" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C31" s="32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C302]</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C32" s="33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C303]</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C33" s="34" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C304]</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="48" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C303]</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C302]</t>
+        </is>
+      </c>
+      <c r="C4" s="34" t="inlineStr">
+        <is>
+          <t>HS152 [C202]</t>
+        </is>
+      </c>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C101]</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C101]</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" s="34" t="inlineStr">
+        <is>
+          <t>HS152 [C205]</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="D15" s="19" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="24" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n"/>
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
+      <c r="G22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="18" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B23" s="19" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C23" s="19" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="E23" s="19" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="F23" s="19" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C24" s="25" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C101]</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C25" s="26" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C102]</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C26" s="27" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C104]</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C27" s="28" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C202]</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C28" s="29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C203]</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="G28" s="8" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C29" s="30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C204]</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G29" s="8" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C30" s="31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C205]</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G30" s="8" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C31" s="32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C302]</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C32" s="33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C303]</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C33" s="34" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C304]</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -558,7 +4480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -568,7 +4490,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA162 [L406]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -585,22 +4507,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>CS161 [C305]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>HS152 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS161 [L407]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC161 [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -649,17 +4571,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC161 [L408]</t>
+          <t>CS161 (Lab) [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C203]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -681,7 +4603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Lab) [C003]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -713,17 +4635,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>HS152 [C205]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>DS161 [C203]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162 [L406]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -733,7 +4655,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -750,7 +4672,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -765,7 +4687,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -857,27 +4779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C302]</t>
+          <t>Course Name [C004]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C302]</t>
+          <t>L-T-P-S-C [C004]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C302]</t>
+          <t>Term Type [C004]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C302]</t>
+          <t>Lectures Hrs [C004]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C302]</t>
+          <t>Tutorials Hrs [C004]</t>
         </is>
       </c>
     </row>
@@ -889,27 +4811,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C302]</t>
+          <t>Problem Solving [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C302]</t>
+          <t>3-0-2-0-4 [C102]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C302]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C302]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -921,27 +4843,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C302]</t>
+          <t>Introduction to data science and artifical inteligance [C102]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C102]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C302]</t>
+          <t>Pre-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C302]</t>
+          <t>2/2 [C102]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -953,27 +4875,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C302]</t>
+          <t>Digital Design [C102]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C302]</t>
+          <t>3-0-2-0-2 [C102]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C302]</t>
+          <t>Post-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C302]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C302]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -985,27 +4907,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Statistics [C302]</t>
+          <t>Statistics [C102]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C102]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C302]</t>
+          <t>Pre-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C302]</t>
+          <t>2/2 [C102]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +4939,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Probability [C302]</t>
+          <t>Probability [C102]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C102]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C302]</t>
+          <t>Post-Mid Only [C102]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C302]</t>
+          <t>2/2 [C102]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C205]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -1073,27 +4995,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course [C302]</t>
+          <t>Course [C004]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code [C302]</t>
+          <t>Course Code [C004]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C302]</t>
+          <t>Lecture Slot - Classroom [C004]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C302]</t>
+          <t>Tutorial Slot - Classroom [C004]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C205]</t>
+          <t>L-T-P-S-C [C004]</t>
         </is>
       </c>
     </row>
@@ -1115,7 +5037,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1147,7 +5069,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1179,7 +5101,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1211,7 +5133,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1243,7 +5165,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1275,7 +5197,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,7 +5229,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1339,7 +5261,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1371,7 +5293,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1403,7 +5325,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1495,10 +5417,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1525,10 +5447,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1559,10 +5481,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1593,10 +5515,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1627,10 +5549,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1661,10 +5583,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1797,10 +5719,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1899,10 +5821,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1933,10 +5855,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2001,10 +5923,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2035,10 +5957,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2137,10 +6059,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,10 +6127,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2273,10 +6195,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2307,10 +6229,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2593,10 +6515,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2627,10 +6549,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2661,10 +6583,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2689,7 +6611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2805,22 +6727,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -2834,12 +6756,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -2877,24 +6799,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -2906,17 +6824,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P3" t="b">
@@ -2944,12 +6862,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2959,7 +6877,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2978,17 +6896,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -3016,12 +6934,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3036,7 +6954,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3050,12 +6968,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -3088,27 +7006,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3122,12 +7040,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -3160,12 +7078,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3194,12 +7112,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -3232,12 +7150,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3266,12 +7184,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -3304,12 +7222,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3338,12 +7256,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -3376,12 +7294,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3410,12 +7328,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -3448,12 +7366,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3482,12 +7400,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -3515,32 +7433,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -3554,12 +7472,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3592,27 +7510,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -3626,12 +7544,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3664,12 +7582,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3698,12 +7616,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3736,29 +7654,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -3770,17 +7684,17 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -3808,27 +7722,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -3842,17 +7756,17 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P16" t="b">
@@ -3890,17 +7804,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -3914,7 +7828,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3986,7 +7900,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4058,7 +7972,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4130,7 +8044,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4202,7 +8116,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4274,7 +8188,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4322,17 +8236,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -4346,7 +8260,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4389,24 +8303,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -4418,12 +8328,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -4456,12 +8366,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4471,7 +8381,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4490,12 +8400,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4538,17 +8448,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -4562,7 +8472,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4634,7 +8544,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4706,7 +8616,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4778,7 +8688,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4850,7 +8760,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4922,7 +8832,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4970,17 +8880,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -4994,7 +8904,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5032,27 +8942,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5066,12 +8976,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5104,12 +9014,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5119,12 +9029,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5138,12 +9048,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5176,12 +9086,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5210,12 +9120,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -5248,7 +9158,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5282,7 +9192,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5320,7 +9230,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5354,7 +9264,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5392,12 +9302,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -5426,12 +9336,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5464,27 +9374,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -5498,12 +9408,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5531,32 +9441,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -5570,12 +9480,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5603,17 +9513,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -5642,12 +9552,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5680,27 +9590,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -5714,17 +9624,17 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P42" t="b">
@@ -5752,27 +9662,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -5786,17 +9696,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P43" t="b">
@@ -5824,12 +9734,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -5858,12 +9768,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5896,7 +9806,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5930,7 +9840,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5968,27 +9878,27 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -6002,12 +9912,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6035,17 +9945,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -6068,18 +9978,22 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6107,17 +10021,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -6132,7 +10046,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -6140,18 +10054,22 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6179,17 +10097,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -6204,7 +10122,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -6212,18 +10130,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6251,17 +10173,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -6276,7 +10198,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -6284,18 +10206,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6333,7 +10259,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -6348,7 +10274,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -6366,12 +10292,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6409,7 +10335,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -6424,7 +10350,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -6442,12 +10368,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6485,7 +10411,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -6500,7 +10426,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6518,12 +10444,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6561,7 +10487,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -6594,12 +10520,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6637,7 +10563,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -6670,12 +10596,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6713,7 +10639,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -6746,12 +10672,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6779,7 +10705,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6789,7 +10715,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -6804,7 +10730,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -6822,12 +10748,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6855,7 +10781,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6865,7 +10791,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -6898,12 +10824,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -6931,7 +10857,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6941,7 +10867,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -6956,7 +10882,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -6974,12 +10900,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7007,7 +10933,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7017,7 +10943,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -7032,7 +10958,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -7050,12 +10976,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7093,7 +11019,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -7108,7 +11034,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -7126,12 +11052,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7169,7 +11095,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -7184,7 +11110,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -7202,12 +11128,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7245,7 +11171,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -7260,7 +11186,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -7278,12 +11204,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -7321,7 +11247,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -7354,12 +11280,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -7397,7 +11323,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -7430,12 +11356,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7473,7 +11399,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -7506,12 +11432,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7544,27 +11470,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -7575,26 +11501,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="b">
         <v>0</v>
       </c>
@@ -7620,22 +11538,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -7651,26 +11569,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
         <v>0</v>
       </c>
@@ -7691,7 +11601,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -7701,24 +11611,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -7727,26 +11633,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="b">
         <v>0</v>
       </c>
@@ -7767,17 +11665,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -7792,7 +11690,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -7803,26 +11701,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -8584,6 +12474,346 @@
         </is>
       </c>
       <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8789,7 +13019,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202, C205, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -314,10 +314,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -326,10 +329,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1477,22 +1477,22 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC161 [C102]</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
-        <is>
-          <t>EC161 [C102]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1508,27 +1508,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -1541,24 +1541,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C101]</t>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
-        </is>
-      </c>
-      <c r="D6" s="15" t="inlineStr">
+          <t>MA162 [C102]</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1584,14 +1584,14 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>CS161 (Lab) [L208]</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C101]</t>
+          <t>MA162 [C102]</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1627,9 +1627,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -1660,9 +1660,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [C003]</t>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2461,9 +2461,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C302]</t>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2471,12 +2471,12 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>EC161 [C102]</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>EC161 [C004]</t>
         </is>
@@ -2489,14 +2489,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C205]</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
+          <t>HS152 [C104]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2522,27 +2522,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -2555,7 +2555,7 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
         </is>
@@ -2565,14 +2565,14 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>MA162 [C002]</t>
-        </is>
-      </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2588,7 +2588,7 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>CS161 (Lab) [L208]</t>
         </is>
@@ -2603,9 +2603,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [C004]</t>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>MA162 [C002]</t>
+          <t>HS152 [C104]</t>
+        </is>
+      </c>
+      <c r="C8" s="15" t="inlineStr">
+        <is>
+          <t>MA162 [C102]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3475,9 +3475,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C303]</t>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3503,19 +3503,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C302]</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C202]</t>
-        </is>
-      </c>
-      <c r="D4" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C101]</t>
+          <t>HS152 [C102]</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3536,27 +3536,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -3569,19 +3569,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C101]</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>DS161 [C002]</t>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -3602,7 +3602,7 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>CS161 (Lab) [L208]</t>
         </is>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C205]</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>DS161 [C002]</t>
+          <t>HS152 [C202]</t>
+        </is>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
+          <t>CS161 [L404]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4507,17 +4507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C305]</t>
+          <t>CS161 [L406]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C202]</t>
+          <t>HS152 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [L404]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C001]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C203]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C003]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C205]</t>
+          <t>HS152 [C304]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C203]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C302]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4995,27 +4995,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5447,10 +5447,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5481,10 +5481,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37.5</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5821,10 +5821,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6127,10 +6127,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6447,10 +6447,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6515,10 +6515,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6756,7 +6756,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6804,15 +6804,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -6824,7 +6828,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6872,17 +6876,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6896,7 +6900,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6968,7 +6972,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7006,27 +7010,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7040,12 +7044,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7078,12 +7082,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7117,7 +7121,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7150,12 +7154,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7189,7 +7193,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7222,12 +7226,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7261,7 +7265,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7294,12 +7298,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7333,7 +7337,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7361,17 +7365,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7381,12 +7385,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7400,12 +7404,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7433,32 +7437,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7472,12 +7476,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7510,29 +7514,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -7544,12 +7544,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7582,22 +7582,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7616,12 +7616,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7654,25 +7654,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -7684,12 +7688,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7722,12 +7726,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7742,7 +7746,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7756,12 +7760,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7794,27 +7798,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7828,12 +7832,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7866,12 +7870,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7900,12 +7904,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7938,7 +7942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -7972,7 +7976,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -8005,17 +8009,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8025,12 +8029,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -8044,12 +8048,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8077,34 +8081,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -8116,12 +8116,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8149,17 +8149,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8221,32 +8221,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -8260,12 +8260,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8298,25 +8298,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -8328,12 +8332,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8366,12 +8370,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8386,7 +8390,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8400,12 +8404,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8438,27 +8442,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8472,12 +8476,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8505,7 +8509,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -8515,7 +8519,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8549,7 +8553,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8577,7 +8581,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -8587,7 +8591,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8621,7 +8625,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8649,7 +8653,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8659,7 +8663,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8693,7 +8697,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8721,7 +8725,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -8731,7 +8735,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8765,7 +8769,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8793,7 +8797,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -8803,7 +8807,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8837,7 +8841,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8865,32 +8869,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -8904,12 +8908,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8937,32 +8941,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8976,12 +8980,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -9009,17 +9013,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9053,7 +9057,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9081,17 +9085,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9125,7 +9129,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9153,17 +9157,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9197,7 +9201,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9225,17 +9229,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9258,18 +9262,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9297,17 +9305,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9322,7 +9330,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9330,18 +9338,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9369,32 +9381,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9402,18 +9414,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9441,32 +9457,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9474,18 +9490,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9513,17 +9533,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9546,18 +9566,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9585,17 +9609,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9610,7 +9634,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9618,18 +9642,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9657,17 +9685,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9682,7 +9710,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9690,18 +9718,22 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9729,51 +9761,51 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9801,27 +9833,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -9834,18 +9866,22 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9873,32 +9909,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9906,18 +9942,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9950,12 +9990,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9965,12 +10005,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9981,26 +10021,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -10026,12 +10058,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10041,12 +10073,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10057,26 +10089,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="b">
         <v>0</v>
       </c>
@@ -10097,17 +10121,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10117,12 +10141,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10133,26 +10157,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -10173,17 +10189,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10193,12 +10209,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10209,26 +10225,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10249,7 +10257,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10259,7 +10267,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10274,7 +10282,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10292,12 +10300,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10325,7 +10333,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10335,7 +10343,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10350,7 +10358,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10368,12 +10376,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10401,7 +10409,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10411,7 +10419,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10426,7 +10434,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10444,12 +10452,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10477,7 +10485,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10487,7 +10495,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10520,12 +10528,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10553,7 +10561,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10563,7 +10571,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10596,12 +10604,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10629,7 +10637,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10639,7 +10647,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10672,12 +10680,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10715,7 +10723,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10730,7 +10738,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10748,12 +10756,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10791,7 +10799,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10824,12 +10832,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10867,7 +10875,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10882,7 +10890,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10900,12 +10908,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10943,7 +10951,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10958,7 +10966,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10976,12 +10984,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11014,27 +11022,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11045,26 +11053,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -11090,12 +11090,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11121,26 +11121,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11166,12 +11158,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11181,7 +11173,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11197,26 +11189,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11242,12 +11226,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11257,12 +11241,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11273,26 +11257,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -11313,7 +11289,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11323,24 +11299,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -11349,26 +11321,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -11389,32 +11353,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11425,26 +11389,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11465,7 +11421,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -11475,12 +11431,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -11490,7 +11446,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11504,12 +11460,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -11533,32 +11489,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11572,12 +11528,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -11606,25 +11562,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -11636,12 +11596,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -11665,17 +11625,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11690,7 +11650,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11701,18 +11661,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -11743,7 +11711,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11758,7 +11726,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11776,12 +11744,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -11819,7 +11787,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11834,7 +11802,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11852,12 +11820,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -11895,7 +11863,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11928,12 +11896,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -11971,7 +11939,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11986,7 +11954,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -12004,12 +11972,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -12047,7 +12015,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12080,12 +12048,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12123,7 +12091,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12156,12 +12124,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12199,24 +12167,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -12232,12 +12196,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12275,17 +12239,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -12308,12 +12272,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12351,22 +12315,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12384,12 +12348,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12422,12 +12386,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12437,7 +12401,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -12453,26 +12417,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12498,27 +12454,27 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12532,12 +12488,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -12566,27 +12522,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12600,220 +12556,16 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12866,7 +12618,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C101, C202, C203</t>
         </is>
       </c>
     </row>
@@ -12883,7 +12635,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C102, C203, C204</t>
         </is>
       </c>
     </row>
@@ -12900,7 +12652,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C104, C204, C205</t>
         </is>
       </c>
     </row>
@@ -12917,7 +12669,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C202, C205, C302</t>
         </is>
       </c>
     </row>
@@ -12934,7 +12686,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C203, C302, C303</t>
         </is>
       </c>
     </row>
@@ -12951,7 +12703,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C204, C303, C304</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12720,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C205, C304, C305</t>
         </is>
       </c>
     </row>
@@ -12985,7 +12737,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001, C302</t>
         </is>
       </c>
     </row>
@@ -13002,7 +12754,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002, C304</t>
         </is>
       </c>
     </row>
@@ -13019,7 +12771,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202, C205, C304</t>
+          <t>C003, C101, C304, C305</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C202]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1477,17 +1477,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C202]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C205]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1543,22 +1543,22 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C102]</t>
+          <t>MA162 [C204]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161 (Lab) [L208]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>EC161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C102]</t>
+          <t>MA162 [C204]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C205]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2039,12 +2039,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2204,12 +2204,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="E3" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C202]</t>
         </is>
       </c>
       <c r="F3" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C205]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C104]</t>
+          <t>HS152 [C202]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C304]</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L208]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E7" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C104]</t>
+          <t>HS152 [C302]</t>
         </is>
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C102]</t>
+          <t>MA162 [C304]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3086,12 +3086,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3119,12 +3119,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3152,12 +3152,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3505,17 +3505,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C102]</t>
+          <t>HS152 [C204]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C102]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3571,17 +3571,17 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161 (Lab) [L208]</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C102]</t>
         </is>
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C202]</t>
+          <t>HS152 [C205]</t>
         </is>
       </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C101]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C102]</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4133,12 +4133,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4298,12 +4298,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [L404]</t>
+          <t>CS161 [L402]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4507,17 +4507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [L406]</t>
+          <t>CS161 [L403]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C101]</t>
+          <t>HS152 [C203]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [L404]</t>
+          <t>MA161 [C102]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4571,17 +4571,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [C308]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [L406]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [C308]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C304]</t>
+          <t>HS152 [L402]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C204]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Course Name [C307]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L208]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Term Type [L107]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>Lectures Hrs [L107]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorials Hrs [L105]</t>
         </is>
       </c>
     </row>
@@ -4811,27 +4811,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C102]</t>
+          <t>Problem Solving [C001]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C102]</t>
+          <t>3-0-2-0-4 [C001]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C002]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C002]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C002]</t>
         </is>
       </c>
     </row>
@@ -4843,27 +4843,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C102]</t>
+          <t>Introduction to data science and artifical inteligance [C001]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C002]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C102]</t>
+          <t>Pre-Mid Only [C002]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C001]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C001]</t>
         </is>
       </c>
     </row>
@@ -4875,27 +4875,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C102]</t>
+          <t>Digital Design [C001]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C102]</t>
+          <t>3-0-2-0-2 [C001]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C102]</t>
+          <t>Post-Mid Only [C001]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C002]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C002]</t>
         </is>
       </c>
     </row>
@@ -4907,27 +4907,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Statistics [C102]</t>
+          <t>Statistics [C001]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C002]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C102]</t>
+          <t>Pre-Mid Only [C002]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C001]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C001]</t>
         </is>
       </c>
     </row>
@@ -4939,27 +4939,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Probability [C102]</t>
+          <t>Probability [C002]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C302]</t>
+          <t>2-0-0-0-2 [C001]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C102]</t>
+          <t>Post-Mid Only [C001]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C002]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C002]</t>
         </is>
       </c>
     </row>
@@ -4995,27 +4995,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Course [L207]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Course Code [C307]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Lecture Slot - Classroom [L207]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorial Slot - Classroom [C307]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L107]</t>
         </is>
       </c>
     </row>
@@ -5027,27 +5027,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5059,27 +5059,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5091,27 +5091,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5155,27 +5155,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5187,27 +5187,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5251,27 +5251,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5283,27 +5283,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5315,27 +5315,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>Introduction to quantam Physics [L402]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>PH151 [L402]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-0-0-2 [L402]</t>
         </is>
       </c>
     </row>
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>19.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5447,10 +5447,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5685,10 +5685,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6127,10 +6127,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6195,10 +6195,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6379,10 +6379,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6447,10 +6447,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6756,7 +6756,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6812,11 +6812,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -6828,7 +6824,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6876,7 +6872,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6884,11 +6880,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
@@ -6900,7 +6892,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6953,7 +6945,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6972,7 +6964,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7010,31 +7002,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -7044,12 +7032,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7058,7 +7046,7 @@
         </is>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7082,29 +7070,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -7116,12 +7100,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7154,29 +7138,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -7188,12 +7168,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7226,29 +7206,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -7260,12 +7236,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7298,29 +7274,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
@@ -7332,12 +7304,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7365,32 +7337,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7404,12 +7376,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7437,36 +7409,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -7476,12 +7448,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7490,7 +7462,7 @@
         </is>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7514,25 +7486,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -7544,12 +7520,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7582,27 +7558,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7616,12 +7592,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7654,12 +7630,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7669,12 +7645,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7688,12 +7664,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7726,14 +7702,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>classroom</t>
@@ -7746,7 +7722,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7760,12 +7736,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7798,31 +7774,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7832,12 +7808,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7846,7 +7822,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7870,29 +7846,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -7904,12 +7876,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7942,7 +7914,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -7952,12 +7924,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -7976,7 +7948,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -8009,34 +7981,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -8048,12 +8016,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8081,17 +8049,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8104,7 +8072,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -8116,12 +8088,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8149,34 +8121,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -8188,12 +8156,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8221,36 +8189,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -8260,12 +8224,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8274,7 +8238,7 @@
         </is>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -8298,12 +8262,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8337,7 +8301,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8370,12 +8334,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8404,12 +8368,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8442,31 +8406,31 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -8476,12 +8440,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8490,7 +8454,7 @@
         </is>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -8509,7 +8473,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -8519,17 +8483,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -8548,12 +8512,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8581,7 +8545,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -8591,17 +8555,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -8620,12 +8584,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8653,7 +8617,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8663,24 +8627,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="b">
         <v>0</v>
       </c>
@@ -8692,12 +8652,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8725,7 +8685,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -8735,17 +8695,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -8764,12 +8724,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8797,7 +8757,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -8807,24 +8767,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -8836,12 +8792,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8869,36 +8825,36 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8908,12 +8864,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8922,7 +8878,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -8941,36 +8897,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -8980,12 +8936,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8994,7 +8950,7 @@
         </is>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -9013,27 +8969,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -9052,12 +9008,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9085,34 +9041,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -9124,12 +9076,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9157,27 +9109,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9196,12 +9148,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9229,55 +9181,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9305,32 +9249,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9338,22 +9282,18 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9381,55 +9321,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9438,7 +9370,7 @@
         </is>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -9457,55 +9389,51 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9514,7 +9442,7 @@
         </is>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -9533,27 +9461,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9566,22 +9494,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9609,55 +9533,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9685,32 +9601,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9718,22 +9634,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9761,17 +9673,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9790,14 +9702,10 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>C001</t>
@@ -9805,7 +9713,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9833,17 +9741,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9866,14 +9774,10 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>C002</t>
@@ -9881,7 +9785,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9909,55 +9813,51 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9966,7 +9866,7 @@
         </is>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -9990,12 +9890,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10005,7 +9905,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -10021,18 +9921,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -10058,12 +9966,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10073,7 +9981,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -10089,18 +9997,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
@@ -10121,17 +10037,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10141,7 +10057,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -10157,18 +10073,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -10189,32 +10113,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10225,18 +10149,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10257,7 +10189,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10267,7 +10199,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10300,12 +10232,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10333,7 +10265,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10343,7 +10275,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10358,7 +10290,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10376,12 +10308,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10409,7 +10341,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10419,7 +10351,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10434,7 +10366,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10452,12 +10384,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10485,7 +10417,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10495,7 +10427,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10528,12 +10460,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10561,7 +10493,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10571,7 +10503,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10586,7 +10518,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10604,12 +10536,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10637,7 +10569,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10647,7 +10579,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10662,7 +10594,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10680,12 +10612,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10713,17 +10645,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10733,7 +10665,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10742,35 +10674,27 @@
         </is>
       </c>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -10789,17 +10713,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10809,44 +10733,36 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -10875,7 +10791,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10908,12 +10824,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10951,7 +10867,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10966,7 +10882,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10984,12 +10900,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11022,27 +10938,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11053,18 +10969,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -11090,27 +11014,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -11121,18 +11045,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11158,12 +11090,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11173,7 +11105,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11189,18 +11121,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11226,12 +11166,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11241,12 +11181,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11257,18 +11197,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -11289,7 +11237,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11299,20 +11247,24 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -11321,18 +11273,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -11353,32 +11313,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11389,18 +11349,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11421,32 +11389,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11457,18 +11425,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P67" t="b">
         <v>0</v>
       </c>
@@ -11489,17 +11465,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11509,7 +11485,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -11525,18 +11501,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P68" t="b">
         <v>0</v>
       </c>
@@ -11557,32 +11541,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11596,12 +11580,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -11625,17 +11609,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11661,11 +11645,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>C203</t>
@@ -11673,14 +11653,10 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -11701,17 +11677,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11721,7 +11697,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -11730,35 +11706,27 @@
         </is>
       </c>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -11777,17 +11745,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11802,7 +11770,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11813,26 +11781,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11853,34 +11813,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="b">
         <v>0</v>
       </c>
@@ -11889,26 +11845,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11929,7 +11877,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11939,24 +11887,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -11965,26 +11909,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -12005,17 +11941,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12025,7 +11961,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -12034,35 +11970,27 @@
         </is>
       </c>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -12091,7 +12019,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12129,7 +12057,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12167,20 +12095,24 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -12196,12 +12128,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12239,22 +12171,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -12272,12 +12204,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12315,22 +12247,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12348,12 +12280,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12386,12 +12318,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12401,7 +12333,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -12417,18 +12349,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12454,12 +12394,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12469,12 +12409,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12485,18 +12425,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12522,50 +12470,422 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
         <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="b">
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12618,7 +12938,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, C202, C203</t>
+          <t>C204, C304, C305, L402</t>
         </is>
       </c>
     </row>
@@ -12635,7 +12955,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C203, C204</t>
+          <t>C101, C104, C205</t>
         </is>
       </c>
     </row>
@@ -12652,7 +12972,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, C204, C205</t>
+          <t>C104, C204, C303</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12989,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C205, C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -12686,7 +13006,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203, C302, C303</t>
+          <t>C104, C303, C305</t>
         </is>
       </c>
     </row>
@@ -12703,7 +13023,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C303, C304</t>
+          <t>C102, C202, C203</t>
         </is>
       </c>
     </row>
@@ -12720,7 +13040,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205, C304, C305</t>
+          <t>C202, C303, C305</t>
         </is>
       </c>
     </row>
@@ -12737,7 +13057,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C302</t>
+          <t>C101, C203, C304</t>
         </is>
       </c>
     </row>
@@ -12754,7 +13074,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C304</t>
+          <t>C102, C203, C205</t>
         </is>
       </c>
     </row>
@@ -12771,7 +13091,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C101, C304, C305</t>
+          <t>C202, C203, C205, C304, L402</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -314,13 +314,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -329,7 +326,10 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C202]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C304]</t>
+          <t>MA162 [C304]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1477,22 +1477,22 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C202]</t>
+          <t>DS161 [C202]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C101]</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C205]</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
+          <t>EC161 [C002]</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C302]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1508,27 +1508,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -1541,24 +1541,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C101]</t>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C203]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C204]</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L208]</t>
+          <t>CS161 [C104]</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C307]</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1584,14 +1584,14 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L208]</t>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C307]</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C204]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C205]</t>
+          <t>CS161 [C202]</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C205]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1627,9 +1627,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -1660,9 +1660,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2461,9 +2461,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C101]</t>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2471,14 +2471,14 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C202]</t>
-        </is>
-      </c>
-      <c r="F3" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C205]</t>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C204]</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C305]</t>
         </is>
       </c>
       <c r="G3" s="8" t="n"/>
@@ -2489,14 +2489,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C001]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C202]</t>
+          <t>HS152 [C001]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2522,27 +2522,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -2555,9 +2555,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C308]</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
@@ -2565,14 +2565,14 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C304]</t>
-        </is>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C204]</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C307]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2588,9 +2588,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
+      <c r="B7" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C308]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2603,9 +2603,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C307]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -2623,12 +2623,12 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C302]</t>
-        </is>
-      </c>
-      <c r="C8" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C304]</t>
+          <t>HS152 [C002]</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C302]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3119,12 +3119,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3350,12 +3350,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3475,9 +3475,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C203]</t>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C003]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3503,19 +3503,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="C4" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C102]</t>
+          <t>HS152 [C003]</t>
+        </is>
+      </c>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C205]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3536,27 +3536,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -3569,19 +3569,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L208]</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C102]</t>
-        </is>
-      </c>
-      <c r="D6" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C101]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C304]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -3602,9 +3602,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L208]</t>
+      <c r="B7" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C205]</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C101]</t>
+          <t>HS152 [C001]</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4133,12 +4133,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4265,12 +4265,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4298,12 +4298,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [L402]</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4507,17 +4507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [L403]</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C203]</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
+          <t>MA161 [C307]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C308]</t>
+          <t>CS161 (Lab) [L404]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C101]</t>
+          <t>DS161 [L404]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C308]</t>
+          <t>CS161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [L402]</t>
+          <t>HS152 [L405]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C204]</t>
+          <t>DS161 [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C307]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L208]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L107]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L107]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L105]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C001]</t>
+          <t>3-0-2-0-4 [C002]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C002]</t>
+          <t>3/3 [C001]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C002]</t>
+          <t>0/0 [C001]</t>
         </is>
       </c>
     </row>
@@ -4843,17 +4843,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C001]</t>
+          <t>Introduction to data science and artifical inteligance [C002]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C002]</t>
+          <t>2-0-0-0-2 [C001]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C002]</t>
+          <t>Pre-Mid Only [C001]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4880,17 +4880,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C001]</t>
+          <t>3-0-2-0-2 [C002]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C001]</t>
+          <t>Post-Mid Only [C002]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C002]</t>
+          <t>3/3 [C001]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4907,22 +4907,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Statistics [C001]</t>
+          <t>Statistics [C002]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C002]</t>
+          <t>2-0-0-0-2 [C001]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C002]</t>
+          <t>Pre-Mid Only [C001]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C001]</t>
+          <t>2/2 [C002]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4939,22 +4939,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Probability [C002]</t>
+          <t>Probability [C001]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C001]</t>
+          <t>2-0-0-0-2 [C002]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C001]</t>
+          <t>Post-Mid Only [C002]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C002]</t>
+          <t>2/2 [C001]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4995,27 +4995,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course [L207]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code [C307]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L207]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C307]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L107]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -5027,27 +5027,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5059,27 +5059,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5091,27 +5091,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5155,27 +5155,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5187,27 +5187,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5251,27 +5251,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5283,27 +5283,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5315,27 +5315,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L402]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151 [L402]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L402]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L402]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5447,10 +5447,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5685,10 +5685,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6379,10 +6379,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6447,10 +6447,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6722,12 +6722,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6756,17 +6756,17 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P2" t="b">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6804,15 +6804,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -6824,7 +6828,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C308</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6862,25 +6866,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
@@ -6892,17 +6900,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C308</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -6930,29 +6938,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -6964,12 +6968,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -7002,27 +7006,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -7032,12 +7040,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C307</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7046,7 +7054,7 @@
         </is>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7070,12 +7078,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7105,7 +7113,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7138,12 +7146,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7156,7 +7164,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -7168,12 +7180,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7206,12 +7218,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7241,7 +7253,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7269,30 +7281,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
@@ -7304,12 +7320,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7337,36 +7353,36 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -7376,12 +7392,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7390,7 +7406,7 @@
         </is>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7409,36 +7425,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -7448,12 +7464,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7462,7 +7478,7 @@
         </is>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7486,29 +7502,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -7520,12 +7532,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7558,27 +7570,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7592,12 +7604,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7630,29 +7642,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -7664,12 +7672,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7702,27 +7710,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7736,12 +7744,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7769,22 +7777,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7792,11 +7800,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>1</v>
       </c>
@@ -7808,12 +7812,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7841,30 +7845,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -7876,12 +7884,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7909,17 +7917,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7953,7 +7961,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7981,17 +7989,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8021,7 +8029,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8049,17 +8057,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8093,7 +8101,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8121,17 +8129,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8161,7 +8169,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8189,32 +8197,36 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -8224,12 +8236,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C307</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8238,7 +8250,7 @@
         </is>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -8257,34 +8269,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -8296,12 +8304,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8329,34 +8337,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
         <v>0</v>
       </c>
@@ -8368,12 +8372,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8401,36 +8405,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -8440,12 +8440,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8473,17 +8473,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8545,17 +8545,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8568,11 +8568,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="b">
         <v>0</v>
       </c>
@@ -8584,12 +8580,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8617,17 +8613,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8657,7 +8653,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8685,17 +8681,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8708,11 +8704,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -8724,12 +8716,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8757,17 +8749,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8780,7 +8772,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -8792,12 +8788,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8825,36 +8821,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8864,12 +8856,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8878,7 +8870,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8897,36 +8889,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -8936,12 +8928,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8950,7 +8942,7 @@
         </is>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8969,27 +8961,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -9002,18 +8994,22 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9041,47 +9037,55 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9109,27 +9113,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9142,18 +9146,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9181,47 +9189,55 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9249,27 +9265,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9282,18 +9298,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9321,47 +9341,55 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C307</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9370,7 +9398,7 @@
         </is>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -9389,51 +9417,55 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9442,7 +9474,7 @@
         </is>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9461,32 +9493,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9494,18 +9526,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9533,47 +9569,55 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9601,32 +9645,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9634,18 +9678,22 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9673,56 +9721,52 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -9741,60 +9785,56 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -9813,7 +9853,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9823,12 +9863,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -9838,7 +9878,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9846,25 +9886,21 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="b">
         <v>1</v>
       </c>
@@ -9885,7 +9921,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9895,54 +9931,42 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -9961,64 +9985,52 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -10037,64 +10049,56 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -10113,64 +10117,56 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -10189,7 +10185,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10199,7 +10195,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10214,7 +10210,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10232,12 +10228,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10265,7 +10261,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10275,7 +10271,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10308,12 +10304,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10341,7 +10337,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10351,7 +10347,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10366,7 +10362,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10384,12 +10380,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10417,7 +10413,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10427,22 +10423,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10460,12 +10456,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10493,7 +10489,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10503,7 +10499,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10518,7 +10514,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10536,12 +10532,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -10569,7 +10565,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10579,7 +10575,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10617,7 +10613,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10645,17 +10641,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10665,7 +10661,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10674,27 +10670,35 @@
         </is>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10713,17 +10717,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10733,36 +10737,44 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10791,7 +10803,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10824,12 +10836,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10867,7 +10879,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10882,7 +10894,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10900,12 +10912,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10938,29 +10950,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -10969,26 +10977,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -11014,29 +11014,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="b">
         <v>0</v>
       </c>
@@ -11045,26 +11041,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11090,59 +11078,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -11166,59 +11146,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -11237,7 +11209,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11247,7 +11219,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11273,26 +11245,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -11313,17 +11277,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11338,7 +11302,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11349,26 +11313,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11389,64 +11345,56 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -11465,64 +11413,56 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -11541,7 +11481,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -11551,22 +11491,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11577,18 +11517,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P69" t="b">
         <v>0</v>
       </c>
@@ -11609,17 +11557,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11634,7 +11582,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11645,18 +11593,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -11677,17 +11633,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11697,7 +11653,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -11706,27 +11662,35 @@
         </is>
       </c>
       <c r="J71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11745,32 +11709,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11781,18 +11745,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11813,30 +11785,34 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
@@ -11845,18 +11821,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C307</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11877,7 +11861,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11887,20 +11871,24 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -11909,18 +11897,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C307</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -11941,17 +11937,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11961,36 +11957,44 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -12019,7 +12023,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12034,7 +12038,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12052,12 +12056,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12095,7 +12099,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12128,12 +12132,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12171,7 +12175,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12204,12 +12208,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12242,27 +12246,27 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12273,26 +12277,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="b">
         <v>0</v>
       </c>
@@ -12318,27 +12314,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12349,26 +12345,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12394,59 +12382,51 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -12470,59 +12450,51 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -12541,34 +12513,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="b">
         <v>0</v>
       </c>
@@ -12577,26 +12545,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -12617,7 +12577,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -12627,24 +12587,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="b">
         <v>0</v>
       </c>
@@ -12653,26 +12609,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="b">
         <v>0</v>
       </c>
@@ -12698,12 +12646,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12729,163 +12677,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J86" t="b">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12938,7 +12742,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C204, C304, C305, L402</t>
+          <t>C101, C204, C205</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12759,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C104, C205</t>
+          <t>C102, C202, C205</t>
         </is>
       </c>
     </row>
@@ -12972,7 +12776,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, C204, C303</t>
+          <t>C104, C204, C302</t>
         </is>
       </c>
     </row>
@@ -13006,7 +12810,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C303, C305</t>
+          <t>C202, C305</t>
         </is>
       </c>
     </row>
@@ -13023,7 +12827,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102, C202, C203</t>
+          <t>C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -13040,7 +12844,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C303, C305</t>
+          <t>C204, C302, C303</t>
         </is>
       </c>
     </row>
@@ -13057,7 +12861,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, C203, C304</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -13074,7 +12878,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C203, C205</t>
+          <t>C102, C203, C302</t>
         </is>
       </c>
     </row>
@@ -13091,7 +12895,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202, C203, C205, C304, L402</t>
+          <t>C303, C304, C308, L405</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -205,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -233,11 +237,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -272,16 +320,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -341,6 +389,8 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1313,7 +1363,7 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
@@ -1399,7 +1449,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1427,20 +1477,20 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
+          <t>MA161 [C003]</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C304]</t>
+        </is>
+      </c>
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>EC161 [C004]</t>
         </is>
@@ -1458,27 +1508,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -1491,19 +1541,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>MA161 [C003]</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C002]</t>
-        </is>
-      </c>
-      <c r="D6" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C304]</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -1534,9 +1584,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -1557,29 +1607,29 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C002]</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>MA162 [C004]</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>EC161 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -1595,24 +1645,24 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -1674,10 +1724,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1687,12 +1737,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -1931,11 +1981,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -1989,12 +2039,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2022,12 +2072,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2055,12 +2105,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2088,12 +2138,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2121,12 +2171,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2154,12 +2204,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2187,12 +2237,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2220,12 +2270,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2253,12 +2303,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2286,12 +2336,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C305]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2411,9 +2461,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C002]</t>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2421,9 +2471,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>EC161 [C004]</t>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -2439,19 +2489,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C003]</t>
-        </is>
-      </c>
-      <c r="C4" s="34" t="inlineStr">
-        <is>
-          <t>HS152 [C104]</t>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C305]</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2472,27 +2522,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -2505,24 +2555,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2538,9 +2588,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L208]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2553,9 +2603,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -2573,22 +2623,22 @@
       </c>
       <c r="B8" s="34" t="inlineStr">
         <is>
-          <t>HS152 [C204]</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>MA162 [C004]</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
+          <t>HS152 [C304]</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>EC161 [C004]</t>
         </is>
       </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2619,9 +2669,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2688,10 +2738,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2701,12 +2751,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -2945,11 +2995,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -3003,12 +3053,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3036,12 +3086,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3069,12 +3119,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3102,12 +3152,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3135,12 +3185,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3168,12 +3218,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3201,12 +3251,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3234,12 +3284,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3267,12 +3317,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3300,12 +3350,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C305]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3425,9 +3475,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C002]</t>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C305]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3453,19 +3503,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C003]</t>
-        </is>
-      </c>
-      <c r="C4" s="34" t="inlineStr">
-        <is>
-          <t>HS152 [C104]</t>
-        </is>
-      </c>
-      <c r="D4" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C104]</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3486,27 +3536,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -3519,12 +3569,12 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>MA161 [C003]</t>
         </is>
@@ -3552,9 +3602,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L208]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3585,19 +3635,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="34" t="inlineStr">
-        <is>
-          <t>HS152 [C204]</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>DS161 [C004]</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>DS161 [C004]</t>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -3702,10 +3752,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3715,12 +3765,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -3959,11 +4009,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -4017,12 +4067,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4050,12 +4100,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4083,12 +4133,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4116,12 +4166,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4149,12 +4199,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4182,12 +4232,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4215,12 +4265,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4248,12 +4298,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4281,12 +4331,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4314,12 +4364,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C305]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -4337,4 +4387,8487 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS161 [C104]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS161 [C203]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS161 [C304]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DS161 [C305]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C308]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA161 [C304]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C308]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name [C001]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C001]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type [C002]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs [C001]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs [C002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Problem Solving [C001]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4 [C002]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C001]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/3 [C002]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance [C002]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C001]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only [C002]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2/2 [C001]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0/0 [C002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Digital Design [C001]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2 [C002]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Post-Mid Only [C001]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3/3 [C002]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Statistics [C002]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C001]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only [C002]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2/2 [C001]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0/0 [C002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Probability [C001]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C002]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Post-Mid Only [C001]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2/2 [C002]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0/0 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Course [C002]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Course Code [C001]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom [C002]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom [C001]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C101, C202, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C102, C203, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C104, C204, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C202, C205, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C203, C302, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C101, C204, C303</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>